--- a/xlsx/域名_intext.xlsx
+++ b/xlsx/域名_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_域名</t>
+    <t>机器翻译</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_域名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCP/IP%E5%8D%8F%E8%AE%AE%E6%97%8F</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%82%B3%E8%BC%B8%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>檔案傳輸協定</t>
+    <t>档案传输协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Hypertext_Transfer_Protocol</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%B1%A4</t>
   </si>
   <si>
-    <t>網絡層</t>
+    <t>网络层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_Protocol</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E7%A2%BA%E6%93%81%E5%A1%9E%E9%80%9A%E7%9F%A5</t>
   </si>
   <si>
-    <t>明確擁塞通知</t>
+    <t>明确拥塞通知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_Group_Management_Protocol</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E6%89%80%E6%9C%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>工業所有權</t>
+    <t>工业所有权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%9D%83</t>
   </si>
   <si>
-    <t>著作权</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%A9</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>精神權利</t>
+    <t>精神权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E8%AE%BE%E8%AE%A1</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD</t>
@@ -539,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>通用頂級域</t>
+    <t>通用顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%A2%BC%E9%A0%82%E7%B4%9A%E7%B6%B2%E5%9F%9F%E5%90%8D%E7%A8%B1</t>
   </si>
   <si>
-    <t>國碼頂級網域名稱</t>
+    <t>国码顶级网域名称</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CcTLD</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F%E5%90%8D</t>
   </si>
   <si>
-    <t>國家和地區頂級域名</t>
+    <t>国家和地区顶级域名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -2153,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8C%96%E5%9C%8B%E5%AE%B6%E5%8F%8A%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國際化國家及地區頂級域</t>
+    <t>国际化国家及地区顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E5%B0%94%E5%AD%97%E6%AF%8D</t>
@@ -2267,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -2309,7 +2309,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%D8%A7%D9%85%D8%A7%D8%B1%D8%A7%D8%AA.</t>
@@ -2369,7 +2369,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
@@ -2723,7 +2723,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>頂級域</t>
+    <t>顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.example</t>
@@ -2765,13 +2765,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%8A%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國家及地區頂級域</t>
+    <t>国家及地区顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2783,7 +2783,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
